--- a/Data_clean/MCAS/Estados_US/Edos_USA_2017/FLORIDA_2017.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2017/FLORIDA_2017.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1726"/>
+  <dimension ref="A1:D1720"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C9">
@@ -491,7 +491,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C10">
@@ -504,7 +504,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C11">
@@ -875,7 +875,7 @@
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C38">
@@ -914,7 +914,7 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C41">
@@ -1044,7 +1044,7 @@
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C51">
@@ -1135,7 +1135,7 @@
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C58">
@@ -1486,7 +1486,7 @@
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>Marqués de Comillas</t>
+          <t>Marqués De Comillas</t>
         </is>
       </c>
       <c r="C85">
@@ -1499,7 +1499,7 @@
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C86">
@@ -1564,7 +1564,7 @@
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C91">
@@ -1720,7 +1720,7 @@
     <row r="103">
       <c r="B103" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C103">
@@ -1733,7 +1733,7 @@
     <row r="104">
       <c r="B104" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C104">
@@ -2284,7 +2284,7 @@
     <row r="146">
       <c r="B146" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C146">
@@ -2297,7 +2297,7 @@
     <row r="147">
       <c r="B147" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C147">
@@ -2414,7 +2414,7 @@
     <row r="156">
       <c r="B156" t="inlineStr">
         <is>
-          <t>San Francisco de Borja</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C156">
@@ -2705,7 +2705,7 @@
     <row r="178">
       <c r="B178" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C178">
@@ -2790,7 +2790,7 @@
         <v>251</v>
       </c>
       <c r="D184">
-        <v>0.009670211126521807</v>
+        <v>0.009670211126521808</v>
       </c>
     </row>
     <row r="185">
@@ -2892,7 +2892,7 @@
     <row r="192">
       <c r="B192" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C192">
@@ -2918,7 +2918,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -2975,7 +2975,7 @@
     <row r="198">
       <c r="B198" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C198">
@@ -3162,7 +3162,7 @@
     <row r="212">
       <c r="B212" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C212">
@@ -3344,7 +3344,7 @@
     <row r="226">
       <c r="B226" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C226">
@@ -3396,7 +3396,7 @@
     <row r="230">
       <c r="B230" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C230">
@@ -3474,7 +3474,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C236">
@@ -3487,7 +3487,7 @@
     <row r="237">
       <c r="B237" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C237">
@@ -3500,7 +3500,7 @@
     <row r="238">
       <c r="B238" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C238">
@@ -3617,12 +3617,12 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C247">
@@ -3661,7 +3661,7 @@
     <row r="250">
       <c r="B250" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C250">
@@ -3674,7 +3674,7 @@
     <row r="251">
       <c r="B251" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C251">
@@ -3765,7 +3765,7 @@
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C258">
@@ -3830,7 +3830,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C263">
@@ -3895,7 +3895,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C268">
@@ -3986,7 +3986,7 @@
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C275">
@@ -4077,7 +4077,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C282">
@@ -4246,7 +4246,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C295">
@@ -4402,7 +4402,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C307">
@@ -4428,7 +4428,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C309">
@@ -4454,7 +4454,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C311">
@@ -4558,7 +4558,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>Tenango del Aire</t>
+          <t>Tenango Del Aire</t>
         </is>
       </c>
       <c r="C319">
@@ -4571,7 +4571,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C320">
@@ -4727,7 +4727,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C332">
@@ -4805,7 +4805,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C338">
@@ -4818,7 +4818,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C339">
@@ -4831,7 +4831,7 @@
     <row r="340">
       <c r="B340" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C340">
@@ -4844,7 +4844,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C341">
@@ -5005,7 +5005,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C353">
@@ -5018,7 +5018,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C354">
@@ -5031,7 +5031,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C355">
@@ -5135,7 +5135,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C363">
@@ -5187,7 +5187,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C367">
@@ -5291,7 +5291,7 @@
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C375">
@@ -5343,7 +5343,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C379">
@@ -5369,7 +5369,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C381">
@@ -5395,7 +5395,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C383">
@@ -5408,7 +5408,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C384">
@@ -5434,7 +5434,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C386">
@@ -5499,7 +5499,7 @@
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C391">
@@ -5582,7 +5582,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C397">
@@ -5621,7 +5621,7 @@
     <row r="400">
       <c r="B400" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C400">
@@ -5634,7 +5634,7 @@
     <row r="401">
       <c r="B401" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C401">
@@ -5686,7 +5686,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C405">
@@ -5712,7 +5712,7 @@
     <row r="407">
       <c r="B407" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C407">
@@ -5725,7 +5725,7 @@
     <row r="408">
       <c r="B408" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C408">
@@ -5764,7 +5764,7 @@
     <row r="411">
       <c r="B411" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C411">
@@ -5777,7 +5777,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C412">
@@ -5790,7 +5790,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C413">
@@ -5803,7 +5803,7 @@
     <row r="414">
       <c r="B414" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C414">
@@ -5868,7 +5868,7 @@
     <row r="419">
       <c r="B419" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C419">
@@ -5881,7 +5881,7 @@
     <row r="420">
       <c r="B420" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C420">
@@ -5933,7 +5933,7 @@
     <row r="424">
       <c r="B424" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C424">
@@ -5946,7 +5946,7 @@
     <row r="425">
       <c r="B425" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C425">
@@ -6024,7 +6024,7 @@
     <row r="431">
       <c r="B431" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C431">
@@ -6037,7 +6037,7 @@
     <row r="432">
       <c r="B432" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C432">
@@ -6063,7 +6063,7 @@
     <row r="434">
       <c r="B434" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C434">
@@ -6076,7 +6076,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C435">
@@ -6102,7 +6102,7 @@
     <row r="437">
       <c r="B437" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C437">
@@ -6141,7 +6141,7 @@
     <row r="440">
       <c r="B440" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C440">
@@ -6310,7 +6310,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C453">
@@ -6336,7 +6336,7 @@
     <row r="455">
       <c r="B455" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C455">
@@ -6362,7 +6362,7 @@
     <row r="457">
       <c r="B457" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C457">
@@ -6388,7 +6388,7 @@
     <row r="459">
       <c r="B459" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C459">
@@ -6440,7 +6440,7 @@
     <row r="463">
       <c r="B463" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C463">
@@ -6453,7 +6453,7 @@
     <row r="464">
       <c r="B464" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C464">
@@ -6564,7 +6564,7 @@
         <v>2491</v>
       </c>
       <c r="D472">
-        <v>0.09597010325165665</v>
+        <v>0.09597010325165664</v>
       </c>
     </row>
     <row r="473">
@@ -6614,7 +6614,7 @@
     <row r="476">
       <c r="B476" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C476">
@@ -6692,7 +6692,7 @@
     <row r="482">
       <c r="B482" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C482">
@@ -6705,7 +6705,7 @@
     <row r="483">
       <c r="B483" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C483">
@@ -6783,7 +6783,7 @@
     <row r="489">
       <c r="B489" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C489">
@@ -6861,7 +6861,7 @@
     <row r="495">
       <c r="B495" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C495">
@@ -6913,7 +6913,7 @@
     <row r="499">
       <c r="B499" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C499">
@@ -6952,7 +6952,7 @@
     <row r="502">
       <c r="B502" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C502">
@@ -7030,7 +7030,7 @@
     <row r="508">
       <c r="B508" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C508">
@@ -7043,7 +7043,7 @@
     <row r="509">
       <c r="B509" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C509">
@@ -7056,7 +7056,7 @@
     <row r="510">
       <c r="B510" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C510">
@@ -7069,7 +7069,7 @@
     <row r="511">
       <c r="B511" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C511">
@@ -7095,7 +7095,7 @@
     <row r="513">
       <c r="B513" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C513">
@@ -7108,7 +7108,7 @@
     <row r="514">
       <c r="B514" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C514">
@@ -7121,7 +7121,7 @@
     <row r="515">
       <c r="B515" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C515">
@@ -7160,7 +7160,7 @@
     <row r="518">
       <c r="B518" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C518">
@@ -7238,7 +7238,7 @@
     <row r="524">
       <c r="B524" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C524">
@@ -7251,7 +7251,7 @@
     <row r="525">
       <c r="B525" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C525">
@@ -7303,7 +7303,7 @@
     <row r="529">
       <c r="B529" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C529">
@@ -7329,7 +7329,7 @@
     <row r="531">
       <c r="B531" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C531">
@@ -7342,7 +7342,7 @@
     <row r="532">
       <c r="B532" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C532">
@@ -7381,7 +7381,7 @@
     <row r="535">
       <c r="B535" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C535">
@@ -7472,7 +7472,7 @@
     <row r="542">
       <c r="B542" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C542">
@@ -7485,7 +7485,7 @@
     <row r="543">
       <c r="B543" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C543">
@@ -7498,7 +7498,7 @@
     <row r="544">
       <c r="B544" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C544">
@@ -7537,7 +7537,7 @@
     <row r="547">
       <c r="B547" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C547">
@@ -7594,7 +7594,7 @@
     <row r="551">
       <c r="B551" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C551">
@@ -7607,7 +7607,7 @@
     <row r="552">
       <c r="B552" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C552">
@@ -7672,7 +7672,7 @@
     <row r="557">
       <c r="B557" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C557">
@@ -7685,7 +7685,7 @@
     <row r="558">
       <c r="B558" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C558">
@@ -7750,7 +7750,7 @@
     <row r="563">
       <c r="B563" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C563">
@@ -7815,7 +7815,7 @@
     <row r="568">
       <c r="B568" t="inlineStr">
         <is>
-          <t>Concepción de Buenos Aires</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C568">
@@ -7919,7 +7919,7 @@
     <row r="576">
       <c r="B576" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C576">
@@ -7997,7 +7997,7 @@
     <row r="582">
       <c r="B582" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C582">
@@ -8010,7 +8010,7 @@
     <row r="583">
       <c r="B583" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C583">
@@ -8062,7 +8062,7 @@
     <row r="587">
       <c r="B587" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C587">
@@ -8140,7 +8140,7 @@
     <row r="593">
       <c r="B593" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C593">
@@ -8153,7 +8153,7 @@
     <row r="594">
       <c r="B594" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C594">
@@ -8231,7 +8231,7 @@
     <row r="600">
       <c r="B600" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C600">
@@ -8296,7 +8296,7 @@
     <row r="605">
       <c r="B605" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C605">
@@ -8309,7 +8309,7 @@
     <row r="606">
       <c r="B606" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C606">
@@ -8335,7 +8335,7 @@
     <row r="608">
       <c r="B608" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C608">
@@ -8374,7 +8374,7 @@
     <row r="611">
       <c r="B611" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C611">
@@ -8400,7 +8400,7 @@
     <row r="613">
       <c r="B613" t="inlineStr">
         <is>
-          <t>Techaluta de Montenegro</t>
+          <t>Techaluta De Montenegro</t>
         </is>
       </c>
       <c r="C613">
@@ -8452,7 +8452,7 @@
     <row r="617">
       <c r="B617" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C617">
@@ -8465,7 +8465,7 @@
     <row r="618">
       <c r="B618" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C618">
@@ -8491,7 +8491,7 @@
     <row r="620">
       <c r="B620" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C620">
@@ -8595,7 +8595,7 @@
     <row r="628">
       <c r="B628" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C628">
@@ -8608,7 +8608,7 @@
     <row r="629">
       <c r="B629" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C629">
@@ -8621,7 +8621,7 @@
     <row r="630">
       <c r="B630" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C630">
@@ -8686,7 +8686,7 @@
     <row r="635">
       <c r="B635" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C635">
@@ -8725,7 +8725,7 @@
     <row r="638">
       <c r="B638" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C638">
@@ -8738,7 +8738,7 @@
     <row r="639">
       <c r="B639" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C639">
@@ -8751,7 +8751,7 @@
     <row r="640">
       <c r="B640" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C640">
@@ -9094,7 +9094,7 @@
     <row r="666">
       <c r="B666" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C666">
@@ -9120,7 +9120,7 @@
     <row r="668">
       <c r="B668" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C668">
@@ -9978,7 +9978,7 @@
     <row r="734">
       <c r="B734" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C734">
@@ -10321,7 +10321,7 @@
     <row r="760">
       <c r="B760" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C760">
@@ -10425,7 +10425,7 @@
     <row r="768">
       <c r="B768" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C768">
@@ -10477,7 +10477,7 @@
     <row r="772">
       <c r="B772" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C772">
@@ -10542,7 +10542,7 @@
     <row r="777">
       <c r="B777" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C777">
@@ -10555,7 +10555,7 @@
     <row r="778">
       <c r="B778" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C778">
@@ -10703,7 +10703,7 @@
     <row r="789">
       <c r="B789" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C789">
@@ -10742,7 +10742,7 @@
     <row r="792">
       <c r="B792" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C792">
@@ -10833,7 +10833,7 @@
     <row r="799">
       <c r="B799" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C799">
@@ -11007,7 +11007,7 @@
     <row r="812">
       <c r="B812" t="inlineStr">
         <is>
-          <t>Ciénega de Flores</t>
+          <t>Ciénega De Flores</t>
         </is>
       </c>
       <c r="C812">
@@ -11163,7 +11163,7 @@
     <row r="824">
       <c r="B824" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C824">
@@ -11228,7 +11228,7 @@
     <row r="829">
       <c r="B829" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C829">
@@ -11298,7 +11298,7 @@
     <row r="834">
       <c r="B834" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C834">
@@ -11376,7 +11376,7 @@
     <row r="840">
       <c r="B840" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C840">
@@ -11402,7 +11402,7 @@
     <row r="842">
       <c r="B842" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C842">
@@ -11415,7 +11415,7 @@
     <row r="843">
       <c r="B843" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C843">
@@ -11441,7 +11441,7 @@
     <row r="845">
       <c r="B845" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C845">
@@ -11454,7 +11454,7 @@
     <row r="846">
       <c r="B846" t="inlineStr">
         <is>
-          <t>Guadalupe de Ramírez</t>
+          <t>Guadalupe De Ramírez</t>
         </is>
       </c>
       <c r="C846">
@@ -11480,7 +11480,7 @@
     <row r="848">
       <c r="B848" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C848">
@@ -11493,7 +11493,7 @@
     <row r="849">
       <c r="B849" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C849">
@@ -11506,7 +11506,7 @@
     <row r="850">
       <c r="B850" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C850">
@@ -11519,7 +11519,7 @@
     <row r="851">
       <c r="B851" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C851">
@@ -11532,7 +11532,7 @@
     <row r="852">
       <c r="B852" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C852">
@@ -11545,7 +11545,7 @@
     <row r="853">
       <c r="B853" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C853">
@@ -11558,7 +11558,7 @@
     <row r="854">
       <c r="B854" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C854">
@@ -11675,7 +11675,7 @@
     <row r="863">
       <c r="B863" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C863">
@@ -11701,7 +11701,7 @@
     <row r="865">
       <c r="B865" t="inlineStr">
         <is>
-          <t>Mazatlán Villa de Flores</t>
+          <t>Mazatlán Villa De Flores</t>
         </is>
       </c>
       <c r="C865">
@@ -11714,7 +11714,7 @@
     <row r="866">
       <c r="B866" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C866">
@@ -11727,7 +11727,7 @@
     <row r="867">
       <c r="B867" t="inlineStr">
         <is>
-          <t>Mixistlán de la Reforma</t>
+          <t>Mixistlán De La Reforma</t>
         </is>
       </c>
       <c r="C867">
@@ -11766,7 +11766,7 @@
     <row r="870">
       <c r="B870" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C870">
@@ -11779,7 +11779,7 @@
     <row r="871">
       <c r="B871" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C871">
@@ -11792,7 +11792,7 @@
     <row r="872">
       <c r="B872" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C872">
@@ -11805,7 +11805,7 @@
     <row r="873">
       <c r="B873" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C873">
@@ -11831,7 +11831,7 @@
     <row r="875">
       <c r="B875" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C875">
@@ -11857,7 +11857,7 @@
     <row r="877">
       <c r="B877" t="inlineStr">
         <is>
-          <t>Rojas de Cuauhtémoc</t>
+          <t>Rojas De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C877">
@@ -12013,7 +12013,7 @@
     <row r="889">
       <c r="B889" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C889">
@@ -12247,7 +12247,7 @@
     <row r="907">
       <c r="B907" t="inlineStr">
         <is>
-          <t>San Dionisio del Mar</t>
+          <t>San Dionisio Del Mar</t>
         </is>
       </c>
       <c r="C907">
@@ -12312,7 +12312,7 @@
     <row r="912">
       <c r="B912" t="inlineStr">
         <is>
-          <t>San Francisco del Mar</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C912">
@@ -12533,7 +12533,7 @@
     <row r="929">
       <c r="B929" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C929">
@@ -12637,7 +12637,7 @@
     <row r="937">
       <c r="B937" t="inlineStr">
         <is>
-          <t>San Juan de los Cués</t>
+          <t>San Juan De Los Cués</t>
         </is>
       </c>
       <c r="C937">
@@ -12650,7 +12650,7 @@
     <row r="938">
       <c r="B938" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C938">
@@ -13222,7 +13222,7 @@
     <row r="982">
       <c r="B982" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C982">
@@ -13235,7 +13235,7 @@
     <row r="983">
       <c r="B983" t="inlineStr">
         <is>
-          <t>San Miguel del Río</t>
+          <t>San Miguel Del Río</t>
         </is>
       </c>
       <c r="C983">
@@ -13248,7 +13248,7 @@
     <row r="984">
       <c r="B984" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C984">
@@ -13417,7 +13417,7 @@
     <row r="997">
       <c r="B997" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C997">
@@ -13469,7 +13469,7 @@
     <row r="1001">
       <c r="B1001" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C1001">
@@ -13612,7 +13612,7 @@
     <row r="1012">
       <c r="B1012" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Ayutla</t>
+          <t>San Pedro Y San Pablo Ayutla</t>
         </is>
       </c>
       <c r="C1012">
@@ -13625,7 +13625,7 @@
     <row r="1013">
       <c r="B1013" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C1013">
@@ -13742,7 +13742,7 @@
     <row r="1022">
       <c r="B1022" t="inlineStr">
         <is>
-          <t>Santa Ana del Valle</t>
+          <t>Santa Ana Del Valle</t>
         </is>
       </c>
       <c r="C1022">
@@ -13937,7 +13937,7 @@
     <row r="1037">
       <c r="B1037" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C1037">
@@ -14015,7 +14015,7 @@
     <row r="1043">
       <c r="B1043" t="inlineStr">
         <is>
-          <t>Santa Inés de Zaragoza</t>
+          <t>Santa Inés De Zaragoza</t>
         </is>
       </c>
       <c r="C1043">
@@ -14028,7 +14028,7 @@
     <row r="1044">
       <c r="B1044" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C1044">
@@ -14054,7 +14054,7 @@
     <row r="1046">
       <c r="B1046" t="inlineStr">
         <is>
-          <t>Santa Lucía del Camino</t>
+          <t>Santa Lucía Del Camino</t>
         </is>
       </c>
       <c r="C1046">
@@ -14184,7 +14184,7 @@
     <row r="1056">
       <c r="B1056" t="inlineStr">
         <is>
-          <t>Santa María del Rosario</t>
+          <t>Santa María Del Rosario</t>
         </is>
       </c>
       <c r="C1056">
@@ -14262,7 +14262,7 @@
     <row r="1062">
       <c r="B1062" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C1062">
@@ -14912,7 +14912,7 @@
     <row r="1112">
       <c r="B1112" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C1112">
@@ -15120,7 +15120,7 @@
     <row r="1128">
       <c r="B1128" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C1128">
@@ -15133,7 +15133,7 @@
     <row r="1129">
       <c r="B1129" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C1129">
@@ -15146,7 +15146,7 @@
     <row r="1130">
       <c r="B1130" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C1130">
@@ -15159,7 +15159,7 @@
     <row r="1131">
       <c r="B1131" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C1131">
@@ -15185,7 +15185,7 @@
     <row r="1133">
       <c r="B1133" t="inlineStr">
         <is>
-          <t>Heroica Villa Tezoatlán de Segura y Luna, Cuna de la Independencia de Oaxaca</t>
+          <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
         </is>
       </c>
       <c r="C1133">
@@ -15198,7 +15198,7 @@
     <row r="1134">
       <c r="B1134" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C1134">
@@ -15211,7 +15211,7 @@
     <row r="1135">
       <c r="B1135" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C1135">
@@ -15263,7 +15263,7 @@
     <row r="1139">
       <c r="B1139" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C1139">
@@ -15276,7 +15276,7 @@
     <row r="1140">
       <c r="B1140" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C1140">
@@ -15289,7 +15289,7 @@
     <row r="1141">
       <c r="B1141" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C1141">
@@ -15328,7 +15328,7 @@
     <row r="1144">
       <c r="B1144" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C1144">
@@ -15341,7 +15341,7 @@
     <row r="1145">
       <c r="B1145" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C1145">
@@ -15380,7 +15380,7 @@
     <row r="1148">
       <c r="B1148" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C1148">
@@ -15619,7 +15619,7 @@
     <row r="1166">
       <c r="B1166" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C1166">
@@ -15775,7 +15775,7 @@
     <row r="1178">
       <c r="B1178" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C1178">
@@ -15892,7 +15892,7 @@
     <row r="1187">
       <c r="B1187" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C1187">
@@ -15905,7 +15905,7 @@
     <row r="1188">
       <c r="B1188" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C1188">
@@ -16087,7 +16087,7 @@
     <row r="1202">
       <c r="B1202" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C1202">
@@ -16100,7 +16100,7 @@
     <row r="1203">
       <c r="B1203" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C1203">
@@ -16165,7 +16165,7 @@
     <row r="1208">
       <c r="B1208" t="inlineStr">
         <is>
-          <t>Huitzilan de Serdán</t>
+          <t>Huitzilan De Serdán</t>
         </is>
       </c>
       <c r="C1208">
@@ -16191,7 +16191,7 @@
     <row r="1210">
       <c r="B1210" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C1210">
@@ -16230,7 +16230,7 @@
     <row r="1213">
       <c r="B1213" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C1213">
@@ -16347,7 +16347,7 @@
     <row r="1222">
       <c r="B1222" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C1222">
@@ -16438,7 +16438,7 @@
     <row r="1229">
       <c r="B1229" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C1229">
@@ -16607,7 +16607,7 @@
     <row r="1242">
       <c r="B1242" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C1242">
@@ -16646,7 +16646,7 @@
     <row r="1245">
       <c r="B1245" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C1245">
@@ -16659,7 +16659,7 @@
     <row r="1246">
       <c r="B1246" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C1246">
@@ -16776,7 +16776,7 @@
     <row r="1255">
       <c r="B1255" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C1255">
@@ -16789,7 +16789,7 @@
     <row r="1256">
       <c r="B1256" t="inlineStr">
         <is>
-          <t>Tepango de Rodríguez</t>
+          <t>Tepango De Rodríguez</t>
         </is>
       </c>
       <c r="C1256">
@@ -16841,7 +16841,7 @@
     <row r="1260">
       <c r="B1260" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C1260">
@@ -16867,7 +16867,7 @@
     <row r="1262">
       <c r="B1262" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C1262">
@@ -16932,7 +16932,7 @@
     <row r="1267">
       <c r="B1267" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C1267">
@@ -17062,7 +17062,7 @@
     <row r="1277">
       <c r="B1277" t="inlineStr">
         <is>
-          <t>Tuzamapan de Galeana</t>
+          <t>Tuzamapan De Galeana</t>
         </is>
       </c>
       <c r="C1277">
@@ -17101,7 +17101,7 @@
     <row r="1280">
       <c r="B1280" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C1280">
@@ -17140,7 +17140,7 @@
     <row r="1283">
       <c r="B1283" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C1283">
@@ -17301,7 +17301,7 @@
       </c>
       <c r="B1295" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1295">
@@ -17327,7 +17327,7 @@
     <row r="1297">
       <c r="B1297" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1297">
@@ -17405,7 +17405,7 @@
     <row r="1303">
       <c r="B1303" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1303">
@@ -17418,7 +17418,7 @@
     <row r="1304">
       <c r="B1304" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C1304">
@@ -17457,7 +17457,7 @@
     <row r="1307">
       <c r="B1307" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1307">
@@ -17496,7 +17496,7 @@
     <row r="1310">
       <c r="B1310" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1310">
@@ -17662,7 +17662,7 @@
     <row r="1322">
       <c r="B1322" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C1322">
@@ -17675,7 +17675,7 @@
     <row r="1323">
       <c r="B1323" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C1323">
@@ -17740,7 +17740,7 @@
     <row r="1328">
       <c r="B1328" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1328">
@@ -17870,7 +17870,7 @@
     <row r="1338">
       <c r="B1338" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1338">
@@ -17935,7 +17935,7 @@
     <row r="1343">
       <c r="B1343" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1343">
@@ -18013,7 +18013,7 @@
     <row r="1349">
       <c r="B1349" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1349">
@@ -18039,7 +18039,7 @@
     <row r="1351">
       <c r="B1351" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C1351">
@@ -18143,7 +18143,7 @@
     <row r="1359">
       <c r="B1359" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C1359">
@@ -18195,7 +18195,7 @@
     <row r="1363">
       <c r="B1363" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C1363">
@@ -18208,7 +18208,7 @@
     <row r="1364">
       <c r="B1364" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C1364">
@@ -18221,7 +18221,7 @@
     <row r="1365">
       <c r="B1365" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C1365">
@@ -18234,7 +18234,7 @@
     <row r="1366">
       <c r="B1366" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C1366">
@@ -18247,7 +18247,7 @@
     <row r="1367">
       <c r="B1367" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1367">
@@ -18260,7 +18260,7 @@
     <row r="1368">
       <c r="B1368" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1368">
@@ -18725,7 +18725,7 @@
     <row r="1403">
       <c r="B1403" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C1403">
@@ -18938,7 +18938,7 @@
     <row r="1419">
       <c r="B1419" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1419">
@@ -19476,7 +19476,7 @@
     <row r="1460">
       <c r="B1460" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1460">
@@ -19572,7 +19572,7 @@
       </c>
       <c r="B1467" t="inlineStr">
         <is>
-          <t>Acuamanala de Miguel Hidalgo</t>
+          <t>Acuamanala De Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C1467">
@@ -19585,7 +19585,7 @@
     <row r="1468">
       <c r="B1468" t="inlineStr">
         <is>
-          <t>Apetatitlán de Antonio Carvajal</t>
+          <t>Apetatitlán De Antonio Carvajal</t>
         </is>
       </c>
       <c r="C1468">
@@ -19637,7 +19637,7 @@
     <row r="1472">
       <c r="B1472" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1472">
@@ -19702,7 +19702,7 @@
     <row r="1477">
       <c r="B1477" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1477">
@@ -19728,7 +19728,7 @@
     <row r="1479">
       <c r="B1479" t="inlineStr">
         <is>
-          <t>Muñoz de Domingo Arenas</t>
+          <t>Muñoz De Domingo Arenas</t>
         </is>
       </c>
       <c r="C1479">
@@ -19741,7 +19741,7 @@
     <row r="1480">
       <c r="B1480" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1480">
@@ -19780,7 +19780,7 @@
     <row r="1483">
       <c r="B1483" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1483">
@@ -19793,7 +19793,7 @@
     <row r="1484">
       <c r="B1484" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1484">
@@ -20006,7 +20006,7 @@
     <row r="1500">
       <c r="B1500" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1500">
@@ -20058,7 +20058,7 @@
     <row r="1504">
       <c r="B1504" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1504">
@@ -20188,7 +20188,7 @@
     <row r="1514">
       <c r="B1514" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1514">
@@ -20201,7 +20201,7 @@
     <row r="1515">
       <c r="B1515" t="inlineStr">
         <is>
-          <t>Camarón de Tejeda</t>
+          <t>Camarón De Tejeda</t>
         </is>
       </c>
       <c r="C1515">
@@ -20240,7 +20240,7 @@
     <row r="1518">
       <c r="B1518" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1518">
@@ -20266,7 +20266,7 @@
     <row r="1520">
       <c r="B1520" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1520">
@@ -20474,7 +20474,7 @@
     <row r="1536">
       <c r="B1536" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1536">
@@ -20487,7 +20487,7 @@
     <row r="1537">
       <c r="B1537" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C1537">
@@ -20695,7 +20695,7 @@
     <row r="1553">
       <c r="B1553" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1553">
@@ -20708,7 +20708,7 @@
     <row r="1554">
       <c r="B1554" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1554">
@@ -20760,7 +20760,7 @@
     <row r="1558">
       <c r="B1558" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1558">
@@ -20773,7 +20773,7 @@
     <row r="1559">
       <c r="B1559" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1559">
@@ -20916,7 +20916,7 @@
     <row r="1570">
       <c r="B1570" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1570">
@@ -20955,7 +20955,7 @@
     <row r="1573">
       <c r="B1573" t="inlineStr">
         <is>
-          <t>Landero y Coss</t>
+          <t>Landero Y Coss</t>
         </is>
       </c>
       <c r="C1573">
@@ -20981,7 +20981,7 @@
     <row r="1575">
       <c r="B1575" t="inlineStr">
         <is>
-          <t>Las Vigas de Ramírez</t>
+          <t>Las Vigas De Ramírez</t>
         </is>
       </c>
       <c r="C1575">
@@ -20994,7 +20994,7 @@
     <row r="1576">
       <c r="B1576" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1576">
@@ -21033,7 +21033,7 @@
     <row r="1579">
       <c r="B1579" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1579">
@@ -21059,7 +21059,7 @@
     <row r="1581">
       <c r="B1581" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1581">
@@ -21111,7 +21111,7 @@
     <row r="1585">
       <c r="B1585" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C1585">
@@ -21280,7 +21280,7 @@
     <row r="1598">
       <c r="B1598" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1598">
@@ -21293,7 +21293,7 @@
     <row r="1599">
       <c r="B1599" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1599">
@@ -21332,7 +21332,7 @@
     <row r="1602">
       <c r="B1602" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1602">
@@ -21436,7 +21436,7 @@
     <row r="1610">
       <c r="B1610" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1610">
@@ -21475,7 +21475,7 @@
     <row r="1613">
       <c r="B1613" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1613">
@@ -21761,7 +21761,7 @@
     <row r="1635">
       <c r="B1635" t="inlineStr">
         <is>
-          <t>Tlacotepec de Mejía</t>
+          <t>Tlacotepec De Mejía</t>
         </is>
       </c>
       <c r="C1635">
@@ -21930,7 +21930,7 @@
     <row r="1648">
       <c r="B1648" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1648">
@@ -22060,7 +22060,7 @@
     <row r="1658">
       <c r="B1658" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C1658">
@@ -22356,7 +22356,7 @@
     <row r="1680">
       <c r="B1680" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1680">
@@ -22369,7 +22369,7 @@
     <row r="1681">
       <c r="B1681" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1681">
@@ -22395,7 +22395,7 @@
     <row r="1683">
       <c r="B1683" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C1683">
@@ -22512,7 +22512,7 @@
     <row r="1692">
       <c r="B1692" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1692">
@@ -22603,7 +22603,7 @@
     <row r="1699">
       <c r="B1699" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1699">
@@ -22616,7 +22616,7 @@
     <row r="1700">
       <c r="B1700" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1700">
@@ -22733,7 +22733,7 @@
     <row r="1709">
       <c r="B1709" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1709">
@@ -22785,7 +22785,7 @@
     <row r="1713">
       <c r="B1713" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1713">
@@ -22884,41 +22884,6 @@
       </c>
       <c r="D1720">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1722">
-      <c r="A1722" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 826,856</t>
-        </is>
-      </c>
-    </row>
-    <row r="1723">
-      <c r="A1723" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1724">
-      <c r="A1724" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1725">
-      <c r="A1725" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1726">
-      <c r="A1726" t="inlineStr">
-        <is>
-          <t>Junio de 2018</t>
-        </is>
       </c>
     </row>
   </sheetData>
